--- a/assets/maps/MapEditor/Test.xlsx
+++ b/assets/maps/MapEditor/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7165C195-D916-48C2-8916-2A6E373C6865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867CF90D-4CF7-459D-8A5A-4802796965B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{DE9F893A-B43B-44F6-AFE6-22C63E004A98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{DE9F893A-B43B-44F6-AFE6-22C63E004A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,14 +82,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -100,7 +93,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -416,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE1C211-90B5-4556-87C1-4C186817D13D}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1468,14 +1461,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="A1:AF18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AF18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>2</formula>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/maps/MapEditor/Test.xlsx
+++ b/assets/maps/MapEditor/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dusti\Documents\Programming\portal_2d\assets\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F75665B-F308-4AFB-8550-710BCF0E37BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D2E870-E7FC-426D-A51C-DDFD4990C022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24708" yWindow="1272" windowWidth="14424" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,12 +365,12 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1042,8 +1042,12 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="X12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>2</v>
+      </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -1060,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1535,5 +1539,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/maps/MapEditor/Test.xlsx
+++ b/assets/maps/MapEditor/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dusti\Documents\Programming\portal_2d\assets\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D2E870-E7FC-426D-A51C-DDFD4990C022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D496FF1-1D9C-4ED5-937B-D47F820F2001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24708" yWindow="1272" windowWidth="14424" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1470" yWindow="1470" windowWidth="14400" windowHeight="8813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+      <selection activeCell="C14" sqref="C14:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/assets/maps/MapEditor/Test.xlsx
+++ b/assets/maps/MapEditor/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D496FF1-1D9C-4ED5-937B-D47F820F2001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F471B454-AE59-42EC-9DE2-DD996E20FEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1470" yWindow="1470" windowWidth="14400" windowHeight="8813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,37 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -365,12 +395,15 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G16"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -468,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -566,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -626,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -686,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -732,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -749,7 +782,9 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -778,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -795,7 +830,9 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>-1</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -824,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -841,11 +878,21 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="M8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-1</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -870,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -916,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -962,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1008,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1064,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1110,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1156,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1244,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1332,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1430,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1531,11 +1578,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AF18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:Q8 M6:M8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/maps/MapEditor/Test.xlsx
+++ b/assets/maps/MapEditor/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F471B454-AE59-42EC-9DE2-DD996E20FEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A9416C-4291-4819-BD0A-0868BF09386E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
       <border>
         <left style="thin">
@@ -87,20 +87,6 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -395,7 +381,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -606,25 +592,63 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-1</v>
+      </c>
       <c r="V3" s="1">
         <v>2</v>
       </c>
@@ -666,25 +690,63 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="C4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-1</v>
+      </c>
       <c r="V4" s="1">
         <v>2</v>
       </c>
@@ -726,32 +788,84 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="C5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC5" s="1">
         <v>2</v>
       </c>
@@ -772,34 +886,84 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="C6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1</v>
+      </c>
       <c r="M6" s="1">
         <v>-1</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+      <c r="N6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC6" s="1">
         <v>2</v>
       </c>
@@ -820,34 +984,84 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="C7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1</v>
+      </c>
       <c r="M7" s="1">
         <v>-1</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="N7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC7" s="1">
         <v>2</v>
       </c>
@@ -893,17 +1107,39 @@
       <c r="Q8" s="1">
         <v>-1</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
+      <c r="R8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC8" s="1">
         <v>2</v>
       </c>
@@ -1585,7 +1821,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:Q8 M6:M8">
+  <conditionalFormatting sqref="M6:M8 R6:R8 W6:W8 C6:Q7 N8:V8 G6:U6 C3:U5 Z6:Z8 X8:Y8 AA8:AB8 S6:AB7 V5:AB5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>

--- a/assets/maps/MapEditor/Test.xlsx
+++ b/assets/maps/MapEditor/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A9416C-4291-4819-BD0A-0868BF09386E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7810E-9162-424A-B077-360DB1A54625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+      <selection activeCell="AC8" sqref="AC8:AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1141,7 @@
         <v>-1</v>
       </c>
       <c r="AC8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="1">
         <v>2</v>
@@ -1187,7 +1187,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="1">
         <v>2</v>
@@ -1233,7 +1233,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
         <v>2</v>
@@ -1279,7 +1279,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="1">
         <v>2</v>

--- a/assets/maps/MapEditor/Test.xlsx
+++ b/assets/maps/MapEditor/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7810E-9162-424A-B077-360DB1A54625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1F419C-3DD9-455F-81A9-51DEF8D5AFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8:AC11"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -867,16 +867,16 @@
         <v>-1</v>
       </c>
       <c r="AC5" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD5" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE5" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF5" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -965,16 +965,16 @@
         <v>-1</v>
       </c>
       <c r="AC6" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD6" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE6" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF6" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1063,16 +1063,16 @@
         <v>-1</v>
       </c>
       <c r="AC7" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD7" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE7" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1082,16 +1082,36 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="C8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
       <c r="M8" s="1">
         <v>-1</v>
       </c>
@@ -1141,16 +1161,16 @@
         <v>-1</v>
       </c>
       <c r="AC8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD8" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE8" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1160,43 +1180,95 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
+      <c r="C9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD9" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE9" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -1206,43 +1278,95 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="C10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD10" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE10" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1252,43 +1376,95 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+      <c r="C11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD11" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE11" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -1298,20 +1474,48 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="C12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-1</v>
+      </c>
       <c r="Q12" s="1">
         <v>2</v>
       </c>
@@ -1321,30 +1525,44 @@
       <c r="S12" s="1">
         <v>2</v>
       </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="T12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>-1</v>
+      </c>
       <c r="X12" s="1">
         <v>2</v>
       </c>
       <c r="Y12" s="1">
         <v>2</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
+      <c r="Z12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC12" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD12" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE12" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF12" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1354,43 +1572,95 @@
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="C13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC13" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD13" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE13" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF13" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -1400,43 +1670,95 @@
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="C14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC14" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD14" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE14" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF14" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -1446,11 +1768,21 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-1</v>
+      </c>
       <c r="H15" s="1">
         <v>2</v>
       </c>
@@ -1458,10 +1790,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L15" s="1">
         <v>2</v>
@@ -1500,22 +1832,22 @@
         <v>2</v>
       </c>
       <c r="X15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1">
         <v>2</v>
@@ -1534,11 +1866,21 @@
       <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1</v>
+      </c>
       <c r="H16" s="1">
         <v>2</v>
       </c>
@@ -1546,10 +1888,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
@@ -1644,10 +1986,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L17" s="1">
         <v>2</v>
@@ -1742,10 +2084,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -1821,7 +2163,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M8 R6:R8 W6:W8 C6:Q7 N8:V8 G6:U6 C3:U5 Z6:Z8 X8:Y8 AA8:AB8 S6:AB7 V5:AB5">
+  <conditionalFormatting sqref="C3:U5 G6:U6 C6:Q7 M6:M8 R6:R8 W6:W8 Z6:Z8 H7:P14 N8:Y8 S8:S11 V8:V11 Y8:Y11 C8:G16 T12:W12 Q13:Y14 AA8:AF8 Q9:AF11 Z12:AF14 V5:AF5 S6:AF7 J15:K18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
